--- a/config/forms/app/create.xlsx
+++ b/config/forms/app/create.xlsx
@@ -129,7 +129,13 @@
     <t>title</t>
   </si>
   <si>
-    <t>What is the title of the task?</t>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Notes about this task:</t>
   </si>
   <si>
     <t>date</t>
@@ -138,13 +144,7 @@
     <t>reminder</t>
   </si>
   <si>
-    <t xml:space="preserve">When should a reminder appear in the task tab? </t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Notes about this task:</t>
+    <t xml:space="preserve">When should a reminder appear in your tasks? </t>
   </si>
   <si>
     <t>list_name</t>
@@ -1101,16 +1101,16 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1125,8 +1125,8 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>42</v>
@@ -1134,7 +1134,7 @@
       <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C2" s="15" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-02_15-12</v>
+        <v>2022-10-19_09-51</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>53</v>

--- a/config/forms/app/create.xlsx
+++ b/config/forms/app/create.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -90,10 +90,19 @@
     <t>patient_id</t>
   </si>
   <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>aka</t>
+  </si>
+  <si>
+    <t>tsis</t>
+  </si>
+  <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t>sex</t>
+    <t>at</t>
   </si>
   <si>
     <t>parent</t>
@@ -123,7 +132,113 @@
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>patient_name1</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name1</t>
+  </si>
+  <si>
+    <t>patient_aka</t>
+  </si>
+  <si>
+    <t>../inputs/contact/aka</t>
+  </si>
+  <si>
+    <t>patient_tsis</t>
+  </si>
+  <si>
+    <t>../inputs/contact/tsis</t>
+  </si>
+  <si>
+    <t>patient_at</t>
+  </si>
+  <si>
+    <t>../inputs/contact/at</t>
+  </si>
+  <si>
+    <t>patient_date_of_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth </t>
+  </si>
+  <si>
+    <t>../inputs/contact/date_of_birth</t>
+  </si>
+  <si>
+    <t>fast_name_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/fstname != '', instance('contact-summary')/context/fstname, .)</t>
+  </si>
+  <si>
+    <t>last_name_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/lstname != '', instance('contact-summary')/context/lstname, .)</t>
+  </si>
+  <si>
+    <t>date_of_birth_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_date_of_birth != '', instance('contact-summary')/context/patient_date_of_birth, .)</t>
+  </si>
+  <si>
+    <t>address_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/address != '', instance('contact-summary')/context/address, .)</t>
+  </si>
+  <si>
+    <t>aka_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_aka != '', instance('contact-summary')/context/patient_aka, .)</t>
+  </si>
+  <si>
+    <t>tsis_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_tsis != '', instance('contact-summary')/context/patient_tsis, .)</t>
+  </si>
+  <si>
+    <t>at_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_at != '', instance('contact-summary')/context/patient_at, .)</t>
+  </si>
+  <si>
+    <t>yr_date_of_birth_ctx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(int(format-date(today(), "%Y") - format-date(${date_of_birth_ctx}, "%Y")) )
+</t>
+  </si>
+  <si>
     <t>create</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}  ${last_name_ctx}**&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow </t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>${aka_ctx}  |  ${yr_date_of_birth_ctx} yr   ${at_ctx}</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>${tsis_ctx}</t>
   </si>
   <si>
     <t>title</t>
@@ -266,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -294,11 +409,20 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -544,6 +668,7 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="47.25"/>
     <col customWidth="1" min="4" max="4" width="43.5"/>
+    <col customWidth="1" min="7" max="7" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -767,13 +892,13 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
@@ -791,15 +916,25 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2"/>
@@ -817,19 +952,31 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -841,19 +988,31 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -870,8 +1029,8 @@
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
@@ -893,19 +1052,17 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1</v>
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -920,10 +1077,14 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -939,13 +1100,19 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -959,13 +1126,19 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -980,7 +1153,7 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1000,20 +1173,14 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1026,20 +1193,14 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1051,19 +1212,13 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1077,19 +1232,21 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>38</v>
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1101,19 +1258,21 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
+      <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1126,18 +1285,20 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1147,17 +1308,33 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1167,15 +1344,33 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1185,6 +1380,586 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1203,7 +1978,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1251,49 +2026,49 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>51</v>
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="15" t="str">
+      <c r="A2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="18" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-19_09-51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
-        <v>55</v>
+        <v>2023-06-21_21-03</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/create.xlsx
+++ b/config/forms/app/create.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -105,6 +105,9 @@
     <t>at</t>
   </si>
   <si>
+    <t>genda</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
@@ -154,6 +157,12 @@
   </si>
   <si>
     <t>../inputs/contact/at</t>
+  </si>
+  <si>
+    <t>patient_genda</t>
+  </si>
+  <si>
+    <t>../inputs/contact/genda</t>
   </si>
   <si>
     <t>patient_date_of_birth</t>
@@ -214,31 +223,55 @@
 </t>
   </si>
   <si>
+    <t>gender_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/patient_genda != '', instance('contact-summary')/context/patient_genda, .)</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
+    <t>field-list summary</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}  ${last_name_ctx}**&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow </t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>${aka_ctx}  |  ${yr_date_of_birth_ctx} yr   ${at_ctx}</t>
+    <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}**&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>Nickname: **${aka_ctx}**</t>
+  </si>
+  <si>
+    <t>age_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age: **${yr_date_of_birth_ctx} yr**  </t>
+  </si>
+  <si>
+    <t>gender_n</t>
+  </si>
+  <si>
+    <t>Gender Identity: **${gender_ctx}**</t>
   </si>
   <si>
     <t>dob</t>
   </si>
   <si>
-    <t>${tsis_ctx}</t>
+    <t>TSIS: **${tsis_ctx}**</t>
+  </si>
+  <si>
+    <t>n_special_instruction_title</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
   </si>
   <si>
     <t>title</t>
@@ -302,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -331,6 +364,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -341,7 +384,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +401,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -381,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -412,6 +461,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -419,12 +471,21 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -433,13 +494,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -666,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="47.25"/>
+    <col customWidth="1" min="3" max="3" width="65.13"/>
     <col customWidth="1" min="4" max="4" width="43.5"/>
     <col customWidth="1" min="7" max="7" width="23.5"/>
   </cols>
@@ -926,6 +987,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -962,6 +1024,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -998,6 +1061,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
@@ -1052,17 +1116,19 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1074,13 +1140,24 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
@@ -1100,19 +1177,17 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1130,7 +1205,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>12</v>
@@ -1152,13 +1227,19 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1173,7 +1254,7 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1193,7 +1274,7 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1213,7 +1294,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1235,18 +1316,12 @@
       <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1259,19 +1334,19 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="10" t="s">
-        <v>38</v>
+      <c r="G23" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1284,20 +1359,20 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>40</v>
+      <c r="G24" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1308,23 +1383,13 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1333,7 +1398,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1354,13 +1419,14 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1369,7 +1435,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1390,13 +1456,14 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1404,10 +1471,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1426,24 +1493,25 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="2"/>
+      <c r="G28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1462,13 +1530,14 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1476,10 +1545,10 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="2"/>
+      <c r="G29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="10"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1498,22 +1567,23 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1534,13 +1604,14 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -1548,8 +1619,8 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="11" t="s">
-        <v>55</v>
+      <c r="G31" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1570,13 +1641,14 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1585,7 +1657,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1606,13 +1678,14 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -1620,8 +1693,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>59</v>
+      <c r="G33" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1642,13 +1715,14 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1657,7 +1731,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1678,13 +1752,14 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -1693,7 +1768,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1714,13 +1789,14 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1729,7 +1805,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1750,23 +1826,24 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1776,23 +1853,34 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1802,21 +1890,34 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1826,19 +1927,32 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>73</v>
+      <c r="A40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1852,14 +1966,14 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1876,14 +1990,14 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1898,18 +2012,29 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1922,13 +2047,28 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1942,11 +2082,28 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1960,8 +2117,171 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D46">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1978,7 +2298,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2026,49 +2346,49 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>89</v>
+      <c r="A1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="18" t="str">
+      <c r="A2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="22" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-21_21-03</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>93</v>
+        <v>2023-08-03_21-54</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/create.xlsx
+++ b/config/forms/app/create.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -244,24 +244,12 @@
     <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}**&lt;/i&gt;</t>
   </si>
   <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>Nickname: **${aka_ctx}**</t>
-  </si>
-  <si>
     <t>age_n</t>
   </si>
   <si>
     <t xml:space="preserve">Age: **${yr_date_of_birth_ctx} yr**  </t>
   </si>
   <si>
-    <t>gender_n</t>
-  </si>
-  <si>
-    <t>Gender Identity: **${gender_ctx}**</t>
-  </si>
-  <si>
     <t>dob</t>
   </si>
   <si>
@@ -319,7 +307,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a task </t>
+    <t>Task</t>
   </si>
   <si>
     <t>pages</t>
@@ -2031,7 +2019,7 @@
       <c r="B43" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="2"/>
@@ -2060,48 +2048,50 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="2"/>
@@ -2117,66 +2107,42 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="17" t="s">
+      <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>23</v>
+      <c r="A47" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2191,15 +2157,11 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2215,16 +2177,10 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="18"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2238,47 +2194,9 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D46">
+    <dataValidation type="list" allowBlank="1" sqref="D44">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2298,7 +2216,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2347,48 +2265,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="22" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-08-03_21-54</v>
+        <v>2023-09-21_09-31</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/config/forms/app/create.xlsx
+++ b/config/forms/app/create.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -268,22 +268,31 @@
     <t>title</t>
   </si>
   <si>
-    <t>Task Name</t>
+    <t>Task of the Person Creating Name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Task Added </t>
+  </si>
+  <si>
+    <t>today()</t>
+  </si>
+  <si>
+    <t>reminder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When should a reminder appear in tasks? </t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
     <t>Notes about this task:</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>reminder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When should a reminder appear in your tasks? </t>
   </si>
   <si>
     <t>list_name</t>
@@ -729,7 +738,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="49.63"/>
-    <col customWidth="1" min="4" max="4" width="65.13"/>
+    <col customWidth="1" min="4" max="4" width="31.38"/>
     <col customWidth="1" min="5" max="5" width="43.5"/>
     <col customWidth="1" min="8" max="8" width="23.5"/>
   </cols>
@@ -2209,19 +2218,21 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2234,13 +2245,13 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="20"/>
@@ -2258,12 +2269,16 @@
       <c r="Q47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2279,11 +2294,13 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2296,6 +2313,44 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -2319,7 +2374,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2368,48 +2423,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="24" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-07-08_21-52</v>
+        <v>2024-08-11_18-21</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H2" s="3"/>
     </row>

--- a/config/forms/app/create.xlsx
+++ b/config/forms/app/create.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Task of the Person Creating Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
   </si>
   <si>
     <t>date</t>
@@ -2203,8 +2206,9 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2218,20 +2222,21 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H46" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2245,18 +2250,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2273,15 +2279,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2374,7 +2381,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2423,48 +2430,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="24" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-08-11_18-21</v>
+        <v>2024-11-21_11-43</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H2" s="3"/>
     </row>
